--- a/sample_table/sampleExcel_単群.xlsx
+++ b/sample_table/sampleExcel_単群.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiromimatsumoto/Library/CloudStorage/GoogleDrive-ocean.vntp@gmail.com/マイドライブ/Python_呼吸器/KaplanMeier_plotter/sample_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B02E7-3522-9740-8A67-5202988C2676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F227DC-41E7-0B48-B313-A6630781BF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="26780" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="26780" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$150</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -420,12 +420,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" customHeight="1">
+    <row r="3" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A3" s="4">
         <v>0.3439200942762568</v>
       </c>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1">
+    <row r="4" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A4" s="4">
         <v>2.5761588211191508</v>
       </c>
@@ -480,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17.25" customHeight="1">
+    <row r="5" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A5" s="4">
         <v>3.869459961245326</v>
       </c>
@@ -491,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.25" customHeight="1">
+    <row r="6" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A6" s="4">
         <v>5.3605981325807761</v>
       </c>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17.25" customHeight="1">
+    <row r="8" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A8" s="4">
         <v>29.877542254487125</v>
       </c>
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" customHeight="1">
+    <row r="10" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A10" s="4">
         <v>53.959131337729573</v>
       </c>
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.25" customHeight="1">
+    <row r="13" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A13" s="4">
         <v>64.985959062915825</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" customHeight="1">
+    <row r="14" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A14" s="4">
         <v>65.318913582057306</v>
       </c>
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17.25" customHeight="1">
+    <row r="15" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A15" s="4">
         <v>76.430343916570607</v>
       </c>
@@ -601,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17.25" customHeight="1">
+    <row r="16" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A16" s="4">
         <v>77.042442990920563</v>
       </c>
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.25" customHeight="1">
+    <row r="17" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A17" s="4">
         <v>78.628664707740469</v>
       </c>
@@ -645,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17.25" customHeight="1">
+    <row r="20" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A20" s="4">
         <v>85.667809350676293</v>
       </c>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25" customHeight="1">
+    <row r="24" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A24" s="4">
         <v>95.572609352429211</v>
       </c>
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25" customHeight="1">
+    <row r="26" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A26" s="4">
         <v>98.215432556219866</v>
       </c>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="17.25" customHeight="1">
+    <row r="27" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A27" s="4">
         <v>102.08537977617712</v>
       </c>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="17.25" customHeight="1">
+    <row r="29" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A29" s="4">
         <v>108.4687148230667</v>
       </c>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" customHeight="1">
+    <row r="30" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A30" s="4">
         <v>113.53669556992044</v>
       </c>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17.25" customHeight="1">
+    <row r="31" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A31" s="4">
         <v>115.08225702736239</v>
       </c>
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17.25" customHeight="1">
+    <row r="32" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A32" s="4">
         <v>115.66161419722843</v>
       </c>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17.25" customHeight="1">
+    <row r="36" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A36" s="4">
         <v>123.95063087724714</v>
       </c>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17.25" customHeight="1">
+    <row r="37" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A37" s="4">
         <v>124.28382607925906</v>
       </c>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17.25" customHeight="1">
+    <row r="41" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A41" s="4">
         <v>127.64346711212822</v>
       </c>
@@ -920,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17.25" customHeight="1">
+    <row r="45" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A45" s="4">
         <v>136.5954882498267</v>
       </c>
@@ -931,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17.25" customHeight="1">
+    <row r="46" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A46" s="4">
         <v>138.36813739083132</v>
       </c>
@@ -942,7 +942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17.25" customHeight="1">
+    <row r="47" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A47" s="4">
         <v>138.97101902553214</v>
       </c>
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.25" customHeight="1">
+    <row r="48" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A48" s="4">
         <v>139.22607214633868</v>
       </c>
@@ -964,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17.25" customHeight="1">
+    <row r="49" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A49" s="4">
         <v>139.30653961345945</v>
       </c>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17.25" customHeight="1">
+    <row r="50" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A50" s="4">
         <v>140.1190087056284</v>
       </c>
@@ -997,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.25" customHeight="1">
+    <row r="52" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A52" s="4">
         <v>140.53723155764223</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.25" customHeight="1">
+    <row r="53" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A53" s="4">
         <v>143.89520006335272</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17.25" customHeight="1">
+    <row r="57" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A57" s="4">
         <v>151.06409029881632</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17.25" customHeight="1">
+    <row r="58" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A58" s="4">
         <v>152.11254220408202</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17.25" customHeight="1">
+    <row r="59" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A59" s="4">
         <v>152.55804662283634</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17.25" customHeight="1">
+    <row r="60" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A60" s="4">
         <v>156.27920254318778</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17.25" customHeight="1">
+    <row r="61" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A61" s="4">
         <v>157.86957980248837</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.25" customHeight="1">
+    <row r="63" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A63" s="4">
         <v>163.47921551725923</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17.25" customHeight="1">
+    <row r="65" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A65" s="4">
         <v>164.23973924787089</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17.25" customHeight="1">
+    <row r="68" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A68" s="4">
         <v>171.52839651405102</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="17.25" customHeight="1">
+    <row r="70" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A70" s="4">
         <v>174.03768871090239</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="17.25" customHeight="1">
+    <row r="74" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A74" s="4">
         <v>182.15566504573744</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="17.25" customHeight="1">
+    <row r="77" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A77" s="4">
         <v>185.45824450274134</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="17.25" customHeight="1">
+    <row r="79" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A79" s="4">
         <v>186.67814451708756</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="17.25" customHeight="1">
+    <row r="80" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A80" s="4">
         <v>189.9775459741758</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="17.25" customHeight="1">
+    <row r="82" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A82" s="4">
         <v>191.83336012974678</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="17.25" customHeight="1">
+    <row r="83" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A83" s="4">
         <v>192.11951589891936</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="17.25" customHeight="1">
+    <row r="86" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A86" s="4">
         <v>194.73902849806481</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17.25" customHeight="1">
+    <row r="90" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A90" s="4">
         <v>198.84787537847291</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="17.25" customHeight="1">
+    <row r="91" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A91" s="4">
         <v>199.28743800858021</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="17.25" customHeight="1">
+    <row r="92" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A92" s="4">
         <v>201.14488181341054</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17.25" customHeight="1">
+    <row r="95" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A95" s="4">
         <v>205.78064845121429</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17.25" customHeight="1">
+    <row r="98" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A98" s="4">
         <v>207.94134838007091</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="17.25" customHeight="1">
+    <row r="99" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A99" s="4">
         <v>209.96538824079227</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="17.25" customHeight="1">
+    <row r="100" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A100" s="4">
         <v>210.56233488777565</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="17.25" customHeight="1">
+    <row r="102" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A102" s="4">
         <v>213.77290744489528</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="17.25" customHeight="1">
+    <row r="106" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A106" s="4">
         <v>224.57060702411903</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="17.25" customHeight="1">
+    <row r="107" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A107" s="4">
         <v>225.34273982727817</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17.25" customHeight="1">
+    <row r="109" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A109" s="4">
         <v>228.3901874292699</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="17.25" customHeight="1">
+    <row r="112" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A112" s="4">
         <v>233.04754592665466</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17.25" customHeight="1">
+    <row r="121" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A121" s="4">
         <v>256.8029100875284</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="17.25" customHeight="1">
+    <row r="123" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A123" s="4">
         <v>265.76734830131471</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17.25" customHeight="1">
+    <row r="127" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A127" s="4">
         <v>270.09903535764079</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="17.25" customHeight="1">
+    <row r="128" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A128" s="4">
         <v>274.12316194374904</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="17.25" customHeight="1">
+    <row r="129" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A129" s="4">
         <v>278.76843856717511</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="17.25" customHeight="1">
+    <row r="130" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A130" s="4">
         <v>280.20056769985911</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17.25" customHeight="1">
+    <row r="132" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A132" s="4">
         <v>281.6185638805606</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="17.25" customHeight="1">
+    <row r="133" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A133" s="4">
         <v>284.16885812252923</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="17.25" customHeight="1">
+    <row r="134" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A134" s="4">
         <v>288.55715785820962</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="17.25" customHeight="1">
+    <row r="135" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A135" s="4">
         <v>292.33120442410984</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="17.25" customHeight="1">
+    <row r="136" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A136" s="4">
         <v>292.59961872316876</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="17.25" customHeight="1">
+    <row r="139" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A139" s="4">
         <v>301.05704737103321</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="17.25" customHeight="1">
+    <row r="140" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A140" s="4">
         <v>303.50037061940202</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="17.25" customHeight="1">
+    <row r="143" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A143" s="4">
         <v>308.1722593288618</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="17.25" customHeight="1">
+    <row r="145" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A145" s="4">
         <v>321.07994126818903</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="17.25" customHeight="1">
+    <row r="149" spans="1:3" ht="17.25" hidden="1" customHeight="1">
       <c r="A149" s="4">
         <v>351.86602153133373</v>
       </c>
@@ -2087,7 +2087,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:C150" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
       <sortCondition ref="A1:A150"/>
     </sortState>
